--- a/заказы/статистика филиалы/2023/11,23/30,11,23 ЗПФ/дв 30,11,23 бррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/30,11,23 ЗПФ/дв 30,11,23 бррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\30,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\30,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC81BB2-66DA-49AE-AFAE-93AEE5A8C606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01287A0A-B375-4FB5-A711-7388459282E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Z$48</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>Период: 23.11.2023 - 30.11.2023</t>
   </si>
@@ -255,6 +255,9 @@
   <si>
     <t>устар.</t>
   </si>
+  <si>
+    <t>дозаказ</t>
+  </si>
 </sst>
 </file>
 
@@ -272,6 +275,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -347,7 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,9 +527,6 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -535,6 +537,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4418,11 +4423,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB19" sqref="AB19"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4445,7 +4450,7 @@
     <col min="26" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4453,12 +4458,21 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="O2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4528,7 +4542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="24" t="s">
@@ -4570,7 +4584,7 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4611,7 +4625,7 @@
       </c>
       <c r="O5" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="12"/>
@@ -4644,8 +4658,16 @@
         <f>SUM(Z6:Z105)</f>
         <v>5605.92</v>
       </c>
+      <c r="AA5" s="18">
+        <f t="shared" ref="AA5:AB5" si="3">SUM(AA6:AA105)</f>
+        <v>331</v>
+      </c>
+      <c r="AB5" s="18">
+        <f t="shared" si="3"/>
+        <v>2053.1999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -4673,10 +4695,10 @@
         <f>F6/5</f>
         <v>0</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="32">
         <v>20</v>
       </c>
-      <c r="O6" s="29"/>
+      <c r="O6" s="28"/>
       <c r="Q6" s="2" t="e">
         <f>(G6+N6)/M6</f>
         <v>#DIV/0!</v>
@@ -4713,14 +4735,14 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28" t="str">
+      <c r="C7" s="34" t="str">
         <f>VLOOKUP(A7,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -4745,24 +4767,24 @@
         <v>315</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J48" si="3">F7-I7</f>
+        <f t="shared" ref="J7:J48" si="4">F7-I7</f>
         <v>-7</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" ref="M7:M48" si="4">F7/5</f>
+        <f t="shared" ref="M7:M48" si="5">F7/5</f>
         <v>61.6</v>
       </c>
-      <c r="N7" s="32">
-        <f t="shared" ref="N7:N20" si="5">14*M7-G7</f>
+      <c r="N7" s="31">
+        <f t="shared" ref="N7:N20" si="6">14*M7-G7</f>
         <v>106.39999999999998</v>
       </c>
-      <c r="O7" s="29"/>
+      <c r="O7" s="28"/>
       <c r="Q7" s="2">
-        <f t="shared" ref="Q7:Q48" si="6">(G7+N7)/M7</f>
+        <f t="shared" ref="Q7:Q48" si="7">(G7+N7)/M7</f>
         <v>14</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:R48" si="7">G7/M7</f>
+        <f t="shared" ref="R7:R48" si="8">G7/M7</f>
         <v>12.272727272727272</v>
       </c>
       <c r="S7" s="2">
@@ -4778,7 +4800,7 @@
         <v>76</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" ref="W7:W48" si="8">N7*H7</f>
+        <f t="shared" ref="W7:W48" si="9">N7*H7</f>
         <v>31.919999999999991</v>
       </c>
       <c r="X7" s="21">
@@ -4789,18 +4811,18 @@
         <v>9</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z48" si="9">Y7*X7*H7</f>
+        <f t="shared" ref="Z7:Z48" si="10">Y7*X7*H7</f>
         <v>32.4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28" t="str">
+      <c r="C8" s="34" t="str">
         <f>VLOOKUP(A8,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -4810,11 +4832,11 @@
       <c r="E8" s="9">
         <v>756</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <f>291+F47</f>
         <v>457</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <f>699+G47</f>
         <v>778</v>
       </c>
@@ -4827,24 +4849,24 @@
         <v>338</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91.4</v>
       </c>
-      <c r="N8" s="32">
-        <f t="shared" si="5"/>
+      <c r="N8" s="31">
+        <f t="shared" si="6"/>
         <v>501.60000000000014</v>
       </c>
-      <c r="O8" s="29"/>
+      <c r="O8" s="28"/>
       <c r="Q8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5120350109409184</v>
       </c>
       <c r="S8" s="2">
@@ -4860,7 +4882,7 @@
         <v>87.8</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>150.48000000000005</v>
       </c>
       <c r="X8" s="21">
@@ -4871,11 +4893,11 @@
         <v>42</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -4904,24 +4926,24 @@
         <v>122</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.2</v>
       </c>
-      <c r="N9" s="32">
-        <f t="shared" si="5"/>
+      <c r="N9" s="31">
+        <f t="shared" si="6"/>
         <v>67.800000000000011</v>
       </c>
-      <c r="O9" s="29"/>
+      <c r="O9" s="28"/>
       <c r="Q9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.000000000000002</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.945945945945946</v>
       </c>
       <c r="S9" s="2">
@@ -4937,7 +4959,7 @@
         <v>25.2</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.408000000000005</v>
       </c>
       <c r="X9" s="21">
@@ -4948,11 +4970,11 @@
         <v>7</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -4979,24 +5001,24 @@
         <v>3.7</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74</v>
       </c>
-      <c r="N10" s="32">
-        <f t="shared" si="5"/>
+      <c r="N10" s="31">
+        <f t="shared" si="6"/>
         <v>2.9599999999999991</v>
       </c>
-      <c r="O10" s="29"/>
+      <c r="O10" s="28"/>
       <c r="Q10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S10" s="2">
@@ -5012,7 +5034,7 @@
         <v>0.74</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9599999999999991</v>
       </c>
       <c r="X10" s="21">
@@ -5023,11 +5045,11 @@
         <v>1</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.7</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -5056,21 +5078,21 @@
         <v>137.5</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.5</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="28"/>
       <c r="Q11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.399999999999999</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.399999999999999</v>
       </c>
       <c r="S11" s="2">
@@ -5086,7 +5108,7 @@
         <v>12.1</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X11" s="21">
@@ -5094,15 +5116,15 @@
         <v>5.5</v>
       </c>
       <c r="Y11" s="22">
-        <f t="shared" ref="Y7:Y48" si="10">N11/X11</f>
+        <f t="shared" ref="Y11:Y43" si="11">N11/X11</f>
         <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -5121,21 +5143,21 @@
         <v>0.25</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="29"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="28"/>
       <c r="Q12" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R12" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S12" s="2">
@@ -5151,7 +5173,7 @@
         <v>7.2</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X12" s="21">
@@ -5162,11 +5184,11 @@
         <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -5193,21 +5215,21 @@
         <v>8</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="29"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="28"/>
       <c r="Q13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="S13" s="2">
@@ -5223,7 +5245,7 @@
         <v>1.2</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X13" s="21">
@@ -5231,15 +5253,15 @@
         <v>3</v>
       </c>
       <c r="Y13" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -5268,21 +5290,21 @@
         <v>180</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-13</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.4</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="29"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="28"/>
       <c r="Q14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.67065868263473</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.67065868263473</v>
       </c>
       <c r="S14" s="2">
@@ -5298,7 +5320,7 @@
         <v>47</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X14" s="21">
@@ -5306,15 +5328,15 @@
         <v>12</v>
       </c>
       <c r="Y14" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
@@ -5335,23 +5357,23 @@
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
         <v>10</v>
       </c>
-      <c r="O15" s="29"/>
+      <c r="O15" s="28"/>
       <c r="Q15" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S15" s="2">
@@ -5367,7 +5389,7 @@
         <v>1.8</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="X15" s="21">
@@ -5378,11 +5400,11 @@
         <v>4</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -5409,21 +5431,21 @@
         <v>10.8</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.16</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="29"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="28"/>
       <c r="Q16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.287037037037035</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23.287037037037035</v>
       </c>
       <c r="S16" s="2">
@@ -5439,7 +5461,7 @@
         <v>1.46</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X16" s="21">
@@ -5447,15 +5469,15 @@
         <v>1.8</v>
       </c>
       <c r="Y16" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -5482,24 +5504,24 @@
         <v>154.19999999999999</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.060000000000002</v>
       </c>
-      <c r="N17" s="32">
-        <f t="shared" si="5"/>
+      <c r="N17" s="31">
+        <f t="shared" si="6"/>
         <v>212.74000000000004</v>
       </c>
-      <c r="O17" s="29"/>
+      <c r="O17" s="28"/>
       <c r="Q17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.1506761107533796</v>
       </c>
       <c r="S17" s="2">
@@ -5515,7 +5537,7 @@
         <v>24.419999999999998</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>212.74000000000004</v>
       </c>
       <c r="X17" s="21">
@@ -5526,11 +5548,11 @@
         <v>58</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>214.60000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -5557,24 +5579,24 @@
         <v>303</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.4</v>
       </c>
-      <c r="N18" s="32">
-        <f t="shared" si="5"/>
+      <c r="N18" s="31">
+        <f t="shared" si="6"/>
         <v>19.600000000000023</v>
       </c>
-      <c r="O18" s="29"/>
+      <c r="O18" s="28"/>
       <c r="Q18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.664383561643836</v>
       </c>
       <c r="S18" s="2">
@@ -5590,7 +5612,7 @@
         <v>66.599999999999994</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9000000000000057</v>
       </c>
       <c r="X18" s="21">
@@ -5601,11 +5623,11 @@
         <v>2</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
@@ -5634,23 +5656,23 @@
         <v>32</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="32">
         <v>40</v>
       </c>
-      <c r="O19" s="29"/>
+      <c r="O19" s="28"/>
       <c r="Q19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="S19" s="2">
@@ -5666,7 +5688,7 @@
         <v>8</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="X19" s="21">
@@ -5677,18 +5699,18 @@
         <v>7</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="28" t="str">
+      <c r="C20" s="34" t="str">
         <f>VLOOKUP(A20,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -5713,24 +5735,24 @@
         <v>282</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.4</v>
       </c>
-      <c r="N20" s="32">
-        <f t="shared" si="5"/>
+      <c r="N20" s="31">
+        <f t="shared" si="6"/>
         <v>394.6</v>
       </c>
-      <c r="O20" s="29"/>
+      <c r="O20" s="28"/>
       <c r="Q20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.7463235294117645</v>
       </c>
       <c r="S20" s="2">
@@ -5746,7 +5768,7 @@
         <v>45.6</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98.65</v>
       </c>
       <c r="X20" s="21">
@@ -5757,11 +5779,11 @@
         <v>66</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
@@ -5788,23 +5810,23 @@
         <v>293</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-12</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.2</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="31">
         <v>370</v>
       </c>
-      <c r="O21" s="29"/>
+      <c r="O21" s="28"/>
       <c r="Q21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.053380782918149</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.4697508896797142</v>
       </c>
       <c r="S21" s="2">
@@ -5820,7 +5842,7 @@
         <v>46</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92.5</v>
       </c>
       <c r="X21" s="21">
@@ -5831,11 +5853,11 @@
         <v>31</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
@@ -5862,21 +5884,21 @@
         <v>117</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.8</v>
       </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
       <c r="Q22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.5263157894736841</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5263157894736841</v>
       </c>
       <c r="S22" s="2">
@@ -5892,7 +5914,7 @@
         <v>32.4</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X22" s="21">
@@ -5903,11 +5925,11 @@
         <v>0</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -5934,23 +5956,23 @@
         <v>77</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.6</v>
       </c>
-      <c r="N23" s="32">
+      <c r="N23" s="31">
         <v>160</v>
       </c>
-      <c r="O23" s="29"/>
+      <c r="O23" s="28"/>
       <c r="Q23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.871794871794872</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6153846153846159</v>
       </c>
       <c r="S23" s="2">
@@ -5966,7 +5988,7 @@
         <v>1.4</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="X23" s="21">
@@ -5977,11 +5999,11 @@
         <v>27</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -6008,23 +6030,23 @@
         <v>162</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.8</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="31">
         <v>300</v>
       </c>
-      <c r="O24" s="29"/>
+      <c r="O24" s="28"/>
       <c r="Q24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.735849056603774</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3018867924528301</v>
       </c>
       <c r="S24" s="2">
@@ -6040,7 +6062,7 @@
         <v>0.8</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>225</v>
       </c>
       <c r="X24" s="21">
@@ -6051,18 +6073,18 @@
         <v>38</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="28" t="str">
+      <c r="C25" s="34" t="str">
         <f>VLOOKUP(A25,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -6085,23 +6107,23 @@
         <v>244</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.2</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="31">
         <v>350</v>
       </c>
-      <c r="O25" s="29"/>
+      <c r="O25" s="28"/>
       <c r="Q25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.04149377593361</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.7800829875518671</v>
       </c>
       <c r="S25" s="2">
@@ -6117,7 +6139,7 @@
         <v>23.8</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>315</v>
       </c>
       <c r="X25" s="21">
@@ -6128,18 +6150,18 @@
         <v>44</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>316.8</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="28" t="str">
+      <c r="C26" s="34" t="str">
         <f>VLOOKUP(A26,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -6162,23 +6184,25 @@
         <v>416</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.6</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="31">
         <v>460</v>
       </c>
-      <c r="O26" s="29"/>
+      <c r="O26" s="28">
+        <v>450</v>
+      </c>
       <c r="Q26" s="2">
-        <f t="shared" si="6"/>
-        <v>14.844497607655503</v>
+        <f>(G26+N26+O26)/M26</f>
+        <v>20.22727272727273</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.3421052631578956</v>
       </c>
       <c r="S26" s="2">
@@ -6194,7 +6218,7 @@
         <v>77.400000000000006</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>414</v>
       </c>
       <c r="X26" s="21">
@@ -6205,11 +6229,18 @@
         <v>58</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>417.6</v>
       </c>
+      <c r="AA26" s="2">
+        <v>56</v>
+      </c>
+      <c r="AB26" s="2">
+        <f>AA26*X26*H26</f>
+        <v>403.2</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
@@ -6238,23 +6269,23 @@
         <v>103</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="31">
         <v>220</v>
       </c>
-      <c r="O27" s="29"/>
+      <c r="O27" s="28"/>
       <c r="Q27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.695652173913043</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1304347826086953</v>
       </c>
       <c r="S27" s="2">
@@ -6270,7 +6301,7 @@
         <v>15.2</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>94.6</v>
       </c>
       <c r="X27" s="21">
@@ -6281,11 +6312,11 @@
         <v>14</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>96.32</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
@@ -6314,23 +6345,25 @@
         <v>786</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="31">
         <v>600</v>
       </c>
-      <c r="O28" s="29"/>
+      <c r="O28" s="28">
+        <v>750</v>
+      </c>
       <c r="Q28" s="2">
-        <f t="shared" si="6"/>
-        <v>14.936708860759493</v>
+        <f t="shared" ref="Q28:Q29" si="12">(G28+N28+O28)/M28</f>
+        <v>19.683544303797468</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.139240506329115</v>
       </c>
       <c r="S28" s="2">
@@ -6346,7 +6379,7 @@
         <v>182</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="X28" s="21">
@@ -6357,18 +6390,26 @@
         <v>120</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>600</v>
       </c>
+      <c r="AA28" s="2">
+        <f t="shared" ref="AA28:AA29" si="13">O28/X28</f>
+        <v>150</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" ref="AB28:AB29" si="14">AA28*X28*H28</f>
+        <v>750</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="28" t="str">
+      <c r="C29" s="34" t="str">
         <f>VLOOKUP(A29,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -6378,11 +6419,11 @@
       <c r="E29" s="9">
         <v>480</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="30">
         <f>827+F48</f>
         <v>1011</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="30">
         <f>1844+G48</f>
         <v>2096</v>
       </c>
@@ -6395,23 +6436,25 @@
         <v>813</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202.2</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="31">
         <v>930</v>
       </c>
-      <c r="O29" s="29"/>
+      <c r="O29" s="28">
+        <v>1000</v>
+      </c>
       <c r="Q29" s="2">
-        <f t="shared" si="6"/>
-        <v>14.965380811078141</v>
+        <f t="shared" si="12"/>
+        <v>19.910979228486649</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.36597428288823</v>
       </c>
       <c r="S29" s="2">
@@ -6427,7 +6470,7 @@
         <v>222</v>
       </c>
       <c r="W29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>837</v>
       </c>
       <c r="X29" s="21">
@@ -6438,11 +6481,19 @@
         <v>117</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>842.4</v>
       </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="13"/>
+        <v>125</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="14"/>
+        <v>900</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
@@ -6471,23 +6522,23 @@
         <v>122</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.6</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="31">
         <v>160</v>
       </c>
-      <c r="O30" s="29"/>
+      <c r="O30" s="28"/>
       <c r="Q30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.040650406504064</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5365853658536572</v>
       </c>
       <c r="S30" s="2">
@@ -6503,7 +6554,7 @@
         <v>23.6</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68.8</v>
       </c>
       <c r="X30" s="21">
@@ -6514,18 +6565,18 @@
         <v>10</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68.8</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="28" t="str">
+      <c r="C31" s="34" t="str">
         <f>VLOOKUP(A31,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -6550,23 +6601,23 @@
         <v>254</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="31">
         <v>340</v>
       </c>
-      <c r="O31" s="29"/>
+      <c r="O31" s="28"/>
       <c r="Q31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.943396226415095</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5283018867924536</v>
       </c>
       <c r="S31" s="2">
@@ -6582,7 +6633,7 @@
         <v>51</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>237.99999999999997</v>
       </c>
       <c r="X31" s="21">
@@ -6593,18 +6644,18 @@
         <v>43</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>240.79999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="28" t="str">
+      <c r="C32" s="34" t="str">
         <f>VLOOKUP(A32,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -6627,23 +6678,23 @@
         <v>46</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.4</v>
       </c>
-      <c r="N32" s="32">
+      <c r="N32" s="31">
         <v>70</v>
       </c>
-      <c r="O32" s="29"/>
+      <c r="O32" s="28"/>
       <c r="Q32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.288461538461538</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5576923076923066</v>
       </c>
       <c r="S32" s="2">
@@ -6659,7 +6710,7 @@
         <v>6</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="X32" s="21">
@@ -6670,7 +6721,7 @@
         <v>9</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64.8</v>
       </c>
     </row>
@@ -6703,21 +6754,21 @@
         <v>80</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="N33" s="32"/>
-      <c r="O33" s="29"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="28"/>
       <c r="Q33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.75</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.75</v>
       </c>
       <c r="S33" s="2">
@@ -6733,7 +6784,7 @@
         <v>25.8</v>
       </c>
       <c r="W33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X33" s="21">
@@ -6741,11 +6792,11 @@
         <v>8</v>
       </c>
       <c r="Y33" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6778,23 +6829,23 @@
         <v>1000</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
-      <c r="N34" s="32">
+      <c r="N34" s="31">
         <v>740</v>
       </c>
-      <c r="O34" s="29"/>
+      <c r="O34" s="28"/>
       <c r="Q34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.262626262626263</v>
       </c>
       <c r="S34" s="2">
@@ -6810,7 +6861,7 @@
         <v>230</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>740</v>
       </c>
       <c r="X34" s="21">
@@ -6821,7 +6872,7 @@
         <v>148</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>740</v>
       </c>
     </row>
@@ -6854,23 +6905,23 @@
         <v>302</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="N35" s="32">
+      <c r="N35" s="31">
         <v>300</v>
       </c>
-      <c r="O35" s="29"/>
+      <c r="O35" s="28"/>
       <c r="Q35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.916666666666666</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.9166666666666661</v>
       </c>
       <c r="S35" s="2">
@@ -6886,7 +6937,7 @@
         <v>63.8</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="X35" s="21">
@@ -6897,7 +6948,7 @@
         <v>60</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
     </row>
@@ -6922,23 +6973,23 @@
         <v>0.33</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="32"/>
-      <c r="O36" s="29"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="31"/>
+      <c r="O36" s="28"/>
       <c r="Q36" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="R36" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S36" s="2">
         <f>VLOOKUP(A36,[1]TDSheet!$A:$T,20,0)</f>
         <v>0</v>
@@ -6952,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X36" s="21">
@@ -6960,11 +7011,11 @@
         <v>6</v>
       </c>
       <c r="Y36" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6995,21 +7046,21 @@
         <v>16.399999999999999</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.3999999999999986</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N37" s="32"/>
-      <c r="O37" s="29"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="28"/>
       <c r="Q37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="S37" s="2">
@@ -7025,7 +7076,7 @@
         <v>2.4</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X37" s="21">
@@ -7033,11 +7084,11 @@
         <v>3</v>
       </c>
       <c r="Y37" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7070,23 +7121,23 @@
         <v>292</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.2</v>
       </c>
-      <c r="N38" s="32">
+      <c r="N38" s="31">
         <v>200</v>
       </c>
-      <c r="O38" s="29"/>
+      <c r="O38" s="28"/>
       <c r="Q38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.071174377224198</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.512455516014235</v>
       </c>
       <c r="S38" s="2">
@@ -7102,7 +7153,7 @@
         <v>66.2</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="X38" s="21">
@@ -7113,7 +7164,7 @@
         <v>17</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
     </row>
@@ -7137,25 +7188,25 @@
         <v>1</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="32">
         <v>30</v>
       </c>
-      <c r="O39" s="29"/>
+      <c r="O39" s="28"/>
       <c r="Q39" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R39" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="R39" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S39" s="2">
         <v>0</v>
       </c>
@@ -7166,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="X39" s="21">
@@ -7176,7 +7227,7 @@
         <v>17</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30.6</v>
       </c>
     </row>
@@ -7206,21 +7257,21 @@
         <v>57.8</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-27.199999999999996</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.12</v>
       </c>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
       <c r="Q40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13071895424836602</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13071895424836602</v>
       </c>
       <c r="S40" s="2">
@@ -7235,11 +7286,11 @@
         <f>VLOOKUP(A40,[1]TDSheet!$A:$M,13,0)</f>
         <v>10.28</v>
       </c>
-      <c r="V40" s="34" t="s">
+      <c r="V40" s="33" t="s">
         <v>72</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X40" s="21">
@@ -7249,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7282,21 +7333,21 @@
         <v>17</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
-      <c r="N41" s="32"/>
-      <c r="O41" s="29"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="28"/>
       <c r="Q41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.764705882352942</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21.764705882352942</v>
       </c>
       <c r="S41" s="2">
@@ -7312,7 +7363,7 @@
         <v>7</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X41" s="21">
@@ -7320,11 +7371,11 @@
         <v>6</v>
       </c>
       <c r="Y41" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7357,21 +7408,21 @@
         <v>16</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
-      <c r="N42" s="32"/>
-      <c r="O42" s="29"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="28"/>
       <c r="Q42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.941176470588236</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27.941176470588236</v>
       </c>
       <c r="S42" s="2">
@@ -7387,7 +7438,7 @@
         <v>10</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X42" s="21">
@@ -7395,11 +7446,11 @@
         <v>6</v>
       </c>
       <c r="Y42" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7426,21 +7477,21 @@
         <v>0.48</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="32"/>
-      <c r="O43" s="29"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="31"/>
+      <c r="O43" s="28"/>
       <c r="Q43" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S43" s="2">
@@ -7456,7 +7507,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X43" s="21">
@@ -7464,11 +7515,11 @@
         <v>8</v>
       </c>
       <c r="Y43" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7479,7 +7530,7 @@
       <c r="B44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="28" t="str">
+      <c r="C44" s="34" t="str">
         <f>VLOOKUP(A44,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -7504,23 +7555,23 @@
         <v>380</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.8</v>
       </c>
-      <c r="N44" s="32">
+      <c r="N44" s="31">
         <v>280</v>
       </c>
-      <c r="O44" s="29"/>
+      <c r="O44" s="28"/>
       <c r="Q44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.01336898395722</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.27005347593583</v>
       </c>
       <c r="S44" s="2">
@@ -7536,7 +7587,7 @@
         <v>86.6</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="X44" s="21">
@@ -7547,7 +7598,7 @@
         <v>24</v>
       </c>
       <c r="Z44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
     </row>
@@ -7558,7 +7609,7 @@
       <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="28" t="str">
+      <c r="C45" s="34" t="str">
         <f>VLOOKUP(A45,[1]TDSheet!$A:$C,3,0)</f>
         <v>Нояб</v>
       </c>
@@ -7581,23 +7632,23 @@
         <v>381</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.2</v>
       </c>
-      <c r="N45" s="32">
+      <c r="N45" s="31">
         <v>470</v>
       </c>
-      <c r="O45" s="29"/>
+      <c r="O45" s="28"/>
       <c r="Q45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.9897698209718673</v>
       </c>
       <c r="S45" s="2">
@@ -7613,7 +7664,7 @@
         <v>67.2</v>
       </c>
       <c r="W45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>117.5</v>
       </c>
       <c r="X45" s="21">
@@ -7624,7 +7675,7 @@
         <v>40</v>
       </c>
       <c r="Z45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
     </row>
@@ -7657,23 +7708,23 @@
         <v>524</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-14</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="N46" s="33">
+      <c r="N46" s="32">
         <v>600</v>
       </c>
-      <c r="O46" s="29"/>
+      <c r="O46" s="28"/>
       <c r="Q46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.392156862745097</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.509803921568627</v>
       </c>
       <c r="S46" s="2">
@@ -7689,7 +7740,7 @@
         <v>150</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="X46" s="21">
@@ -7700,12 +7751,12 @@
         <v>120</v>
       </c>
       <c r="Z46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -7718,10 +7769,10 @@
       <c r="E47" s="9">
         <v>208</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="30">
         <v>166</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="30">
         <v>79</v>
       </c>
       <c r="H47" s="21">
@@ -7733,21 +7784,21 @@
         <v>194</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-28</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.200000000000003</v>
       </c>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
       <c r="Q47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3795180722891565</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3795180722891565</v>
       </c>
       <c r="S47" s="2">
@@ -7763,7 +7814,7 @@
         <v>22.6</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X47" s="21">
@@ -7774,12 +7825,12 @@
         <v>0</v>
       </c>
       <c r="Z47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -7792,10 +7843,10 @@
       <c r="E48" s="9">
         <v>438</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="30">
         <v>184</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="30">
         <v>252</v>
       </c>
       <c r="H48" s="21">
@@ -7807,21 +7858,21 @@
         <v>194</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
       <c r="Q48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.8478260869565224</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.8478260869565224</v>
       </c>
       <c r="S48" s="2">
@@ -7837,7 +7888,7 @@
         <v>37</v>
       </c>
       <c r="W48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X48" s="21">
@@ -7848,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
